--- a/src/private/templates/tenders.xlsx
+++ b/src/private/templates/tenders.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,17 +53,17 @@
     <t>Not responded</t>
   </si>
   <si>
-    <t>Sourcing officer</t>
-  </si>
-  <si>
-    <t>Regret Letter</t>
+    <t>Regret Letter sent</t>
+  </si>
+  <si>
+    <t>Requesting sourcing/ purchasing officer name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,13 +71,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,8 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" zoomScaleNormal="244" zoomScalePageLayoutView="244" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" zoomScalePageLayoutView="93" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -382,41 +403,45 @@
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
